--- a/data/trans_orig/P1430-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1430-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>6347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2107</v>
+        <v>2114</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13579</v>
+        <v>13601</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009021731422937721</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00299565544770437</v>
+        <v>0.003005768948015323</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01930350815600363</v>
+        <v>0.01933398874995711</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -763,19 +763,19 @@
         <v>4132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10380</v>
+        <v>10080</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005927836082702856</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001495505060428804</v>
+        <v>0.001500437559419287</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01489081730363029</v>
+        <v>0.01446063680023246</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>10479</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5251</v>
+        <v>5178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19086</v>
+        <v>19032</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007481873856948531</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003749326104499879</v>
+        <v>0.00369726834151943</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01362748847262395</v>
+        <v>0.01358930110265505</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>697122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>689890</v>
+        <v>689868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>701362</v>
+        <v>701355</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9909782685770623</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9806964918439963</v>
+        <v>0.9806660112500429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9970043445522957</v>
+        <v>0.9969942310519847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>646</v>
@@ -834,19 +834,19 @@
         <v>692918</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>686670</v>
+        <v>686970</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>696008</v>
+        <v>696004</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9940721639172971</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9851091826963696</v>
+        <v>0.9855393631997661</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9985044949395712</v>
+        <v>0.9984995624405807</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1314</v>
@@ -855,19 +855,19 @@
         <v>1390040</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1381433</v>
+        <v>1381487</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1395268</v>
+        <v>1395341</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9925181261430515</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9863725115273764</v>
+        <v>0.986410698897345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962506738955001</v>
+        <v>0.9963027316584806</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>8148</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4051</v>
+        <v>3974</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16098</v>
+        <v>15327</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008004611115693899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003979849262628027</v>
+        <v>0.003904284337636494</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01581393141499639</v>
+        <v>0.01505720927829064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -980,19 +980,19 @@
         <v>8825</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3317</v>
+        <v>4370</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16569</v>
+        <v>17357</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008576034664306408</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00322328870341673</v>
+        <v>0.004246512710887701</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01610288264113294</v>
+        <v>0.0168683163677115</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1001,19 +1001,19 @@
         <v>16973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9525</v>
+        <v>10311</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26633</v>
+        <v>27069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008291861945115268</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004653151121485382</v>
+        <v>0.005037487944593394</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01301103272153121</v>
+        <v>0.01322404163701336</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1009799</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1001849</v>
+        <v>1002620</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1013896</v>
+        <v>1013973</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9919953888843061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9841860685850036</v>
+        <v>0.9849427907217091</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9960201507373719</v>
+        <v>0.9960957156623634</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>930</v>
@@ -1051,19 +1051,19 @@
         <v>1020148</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012404</v>
+        <v>1011616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025656</v>
+        <v>1024603</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9914239653356935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9838971173588671</v>
+        <v>0.9831316836322884</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967767112965833</v>
+        <v>0.9957534872891123</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1858</v>
@@ -1072,19 +1072,19 @@
         <v>2029948</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2020288</v>
+        <v>2019852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2037396</v>
+        <v>2036610</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9917081380548848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9869889672784685</v>
+        <v>0.9867759583629864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9953468488785144</v>
+        <v>0.9949625120554066</v>
       </c>
     </row>
     <row r="9">
@@ -1179,16 +1179,16 @@
         <v>2109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15620</v>
+        <v>15841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008434984150740697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002783582560719868</v>
+        <v>0.002783459892573691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0206169400287706</v>
+        <v>0.02090854091635594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1197,19 +1197,19 @@
         <v>3133</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8468</v>
+        <v>8330</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0040307625126202</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001258124790997043</v>
+        <v>0.001266658947113907</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01089587403554237</v>
+        <v>0.010718596307922</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1218,19 +1218,19 @@
         <v>9523</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4257</v>
+        <v>4198</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20056</v>
+        <v>18326</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006204822207470321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002773539529391817</v>
+        <v>0.002735136933628018</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01306720580447705</v>
+        <v>0.01194029883081343</v>
       </c>
     </row>
     <row r="11">
@@ -1247,7 +1247,7 @@
         <v>751232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>742003</v>
+        <v>741782</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>755514</v>
@@ -1256,10 +1256,10 @@
         <v>0.9915650158492593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9793830599712298</v>
+        <v>0.9790914590836445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9972164174392801</v>
+        <v>0.9972165401074263</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>702</v>
@@ -1268,19 +1268,19 @@
         <v>774041</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>768706</v>
+        <v>768844</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>776196</v>
+        <v>776190</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9959692374873798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9891041259644576</v>
+        <v>0.9892814036920781</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9987418752090029</v>
+        <v>0.9987333410528861</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1386</v>
@@ -1289,19 +1289,19 @@
         <v>1525274</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1514741</v>
+        <v>1516471</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1530540</v>
+        <v>1530599</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9937951777925297</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.986932794195523</v>
+        <v>0.9880597011691864</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972264604706081</v>
+        <v>0.997264863066372</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>4047</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>992</v>
+        <v>978</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13357</v>
+        <v>11282</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004270506943664102</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001046585023721647</v>
+        <v>0.001032367924579256</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0140933183759492</v>
+        <v>0.01190423858091703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1414,19 +1414,19 @@
         <v>6083</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2894</v>
+        <v>2937</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13116</v>
+        <v>13082</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.005782583083507985</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002751558956218564</v>
+        <v>0.002791690160951915</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01246868887558373</v>
+        <v>0.01243679343299926</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1435,19 +1435,19 @@
         <v>10130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4175</v>
+        <v>4990</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19280</v>
+        <v>19687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005065927176126741</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002087840040765266</v>
+        <v>0.002495558457364211</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00964167909647028</v>
+        <v>0.00984506765558011</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>943692</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>934382</v>
+        <v>936457</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>946747</v>
+        <v>946761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9957294930563358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.985906681624052</v>
+        <v>0.9880957614190832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9989534149762783</v>
+        <v>0.9989676320754207</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>997</v>
@@ -1485,19 +1485,19 @@
         <v>1045818</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1038785</v>
+        <v>1038819</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1049007</v>
+        <v>1048964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.994217416916492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9875313111244165</v>
+        <v>0.9875632065670007</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9972484410437815</v>
+        <v>0.9972083098390481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1904</v>
@@ -1506,19 +1506,19 @@
         <v>1989510</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1980360</v>
+        <v>1979953</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1995465</v>
+        <v>1994650</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9949340728238733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9903583209035298</v>
+        <v>0.99015493234442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9979121599592348</v>
+        <v>0.9975044415426358</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>24933</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15712</v>
+        <v>16394</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36430</v>
+        <v>38084</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007275826301560233</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004584969957905805</v>
+        <v>0.004784030902531706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01063091285350596</v>
+        <v>0.01111374417842103</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1631,19 +1631,19 @@
         <v>22172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14680</v>
+        <v>13799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33069</v>
+        <v>33341</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006236625792868268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004129268869008402</v>
+        <v>0.00388154043684873</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009301983138066917</v>
+        <v>0.009378400799628761</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -1652,19 +1652,19 @@
         <v>47104</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34229</v>
+        <v>34313</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>62276</v>
+        <v>62942</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006746676339608119</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004902608063035363</v>
+        <v>0.004914518737385093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008919607183965223</v>
+        <v>0.009015010366426162</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>3401846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3390349</v>
+        <v>3388695</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3411067</v>
+        <v>3410385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9927241736984398</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.989369087146494</v>
+        <v>0.9888862558215784</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9954150300420939</v>
+        <v>0.995215969097468</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3275</v>
@@ -1702,19 +1702,19 @@
         <v>3532926</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3522029</v>
+        <v>3521757</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3540418</v>
+        <v>3541299</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9937633742071317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9906980168619332</v>
+        <v>0.990621599200371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9958707311309916</v>
+        <v>0.9961184595631511</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6462</v>
@@ -1723,19 +1723,19 @@
         <v>6934773</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6919601</v>
+        <v>6918935</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6947648</v>
+        <v>6947564</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9932533236603919</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9910803928160348</v>
+        <v>0.990984989633574</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9950973919369648</v>
+        <v>0.995085481262615</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>4395</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10023</v>
+        <v>10832</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00651300081608282</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001597986858183333</v>
+        <v>0.00160375332505878</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01485373459830493</v>
+        <v>0.0160527496951951</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7049</v>
+        <v>6120</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00301688542838451</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0104760666877067</v>
+        <v>0.009095615500135969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -2109,19 +2109,19 @@
         <v>6425</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2309</v>
+        <v>2743</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13634</v>
+        <v>13773</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004767486789008222</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001713244675540142</v>
+        <v>0.002035431220634883</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01011701337804294</v>
+        <v>0.01021973854751297</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>670405</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>664777</v>
+        <v>663968</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673722</v>
+        <v>673718</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9934869991839171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.985146265401695</v>
+        <v>0.9839472503048047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984020131418166</v>
+        <v>0.9983962466749412</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -2159,7 +2159,7 @@
         <v>670809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>665790</v>
+        <v>666719</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>672839</v>
@@ -2168,7 +2168,7 @@
         <v>0.9969831145716155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9895239333122934</v>
+        <v>0.9909043844998642</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2180,19 +2180,19 @@
         <v>1341214</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1334005</v>
+        <v>1333866</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1345330</v>
+        <v>1344896</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9952325132109918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9898829866219571</v>
+        <v>0.9897802614524867</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9982867553244598</v>
+        <v>0.9979645687793637</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>5894</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2112</v>
+        <v>2011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14076</v>
+        <v>13643</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005764799368797561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002065516008424901</v>
+        <v>0.001966678733931799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01376717316944405</v>
+        <v>0.01334370589178941</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2305,19 +2305,19 @@
         <v>5071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1367</v>
+        <v>1080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14305</v>
+        <v>13421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004862283051349379</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001310810170203964</v>
+        <v>0.001035642831732936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01371685536647089</v>
+        <v>0.01286853495641562</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -2326,19 +2326,19 @@
         <v>10965</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4980</v>
+        <v>5074</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20492</v>
+        <v>20411</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005309066084269929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002411343702910985</v>
+        <v>0.002456795209004537</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009921722997684316</v>
+        <v>0.009882592669729823</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>1016537</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1008355</v>
+        <v>1008788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1020319</v>
+        <v>1020420</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9942352006312024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9862328268305558</v>
+        <v>0.986656294108211</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9979344839915751</v>
+        <v>0.9980333212660683</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>973</v>
@@ -2376,19 +2376,19 @@
         <v>1037842</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028608</v>
+        <v>1029492</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1041546</v>
+        <v>1041833</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9951377169486506</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9862831446335291</v>
+        <v>0.9871314650435844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9986891898297952</v>
+        <v>0.9989643571682671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1919</v>
@@ -2397,19 +2397,19 @@
         <v>2054379</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2044852</v>
+        <v>2044933</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2060364</v>
+        <v>2060270</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.99469093391573</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9900782770023161</v>
+        <v>0.9901174073302706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997588656297089</v>
+        <v>0.9975432047909955</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>6663</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2703</v>
+        <v>2679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16091</v>
+        <v>13927</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008772522562364517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003559241636093525</v>
+        <v>0.003527632838479522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02118505320491231</v>
+        <v>0.01833606311910168</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7758</v>
+        <v>8005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002985888482911658</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.009882741902464767</v>
+        <v>0.01019678652564162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -2543,19 +2543,19 @@
         <v>9007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3910</v>
+        <v>4092</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17477</v>
+        <v>17860</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005831515731818932</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002531420399679761</v>
+        <v>0.002649594078802604</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01131507638444744</v>
+        <v>0.0115630278652839</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>752889</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>743461</v>
+        <v>745625</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>756849</v>
+        <v>756873</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9912274774376355</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9788149467950878</v>
+        <v>0.9816639368808984</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9964407583639064</v>
+        <v>0.9964723671615205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>734</v>
@@ -2593,7 +2593,7 @@
         <v>782667</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>777253</v>
+        <v>777006</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>785011</v>
@@ -2602,7 +2602,7 @@
         <v>0.9970141115170883</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9901172580975353</v>
+        <v>0.9898032134743587</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -2614,19 +2614,19 @@
         <v>1535556</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1527086</v>
+        <v>1526703</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1540653</v>
+        <v>1540471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9941684842681811</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9886849236155525</v>
+        <v>0.988436972134716</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9974685796003202</v>
+        <v>0.9973504059211974</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>7811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3110</v>
+        <v>3083</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16202</v>
+        <v>15900</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008331549512773869</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003317430047837928</v>
+        <v>0.003287846438713059</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01728039223609984</v>
+        <v>0.01695834225890932</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -2739,19 +2739,19 @@
         <v>4275</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1373</v>
+        <v>998</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10790</v>
+        <v>10723</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004095676505647006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001315062501962161</v>
+        <v>0.0009558226702935111</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01033765125667063</v>
+        <v>0.01027287737422878</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -2760,19 +2760,19 @@
         <v>12086</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6262</v>
+        <v>6352</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>20977</v>
+        <v>21735</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00610007892719423</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003160724689696004</v>
+        <v>0.003205835792526395</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01058709247034739</v>
+        <v>0.01096999738067577</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>929756</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>921365</v>
+        <v>921667</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>934457</v>
+        <v>934484</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9916684504872262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9827196077638995</v>
+        <v>0.9830416577410908</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.996682569952162</v>
+        <v>0.9967121535612871</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>955</v>
@@ -2810,19 +2810,19 @@
         <v>1039504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1032989</v>
+        <v>1033056</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1042406</v>
+        <v>1042781</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.995904323494353</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9896623487433314</v>
+        <v>0.9897271226257738</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9986849374980379</v>
+        <v>0.9990441773297065</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1880</v>
@@ -2831,19 +2831,19 @@
         <v>1969260</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1960369</v>
+        <v>1959611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1975084</v>
+        <v>1974994</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9938999210728058</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9894129075296527</v>
+        <v>0.9890300026193249</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.996839275310304</v>
+        <v>0.996794164207474</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>24764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15754</v>
+        <v>15810</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37958</v>
+        <v>36661</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007295551730474461</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004641225848004129</v>
+        <v>0.004657654128296754</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01118258408238347</v>
+        <v>0.01080066889031176</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -2956,19 +2956,19 @@
         <v>13720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7410</v>
+        <v>7329</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25349</v>
+        <v>23940</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003870670120778463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002090583030439348</v>
+        <v>0.002067567253808565</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.007151419020944945</v>
+        <v>0.006754145319101038</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -2977,19 +2977,19 @@
         <v>38483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27043</v>
+        <v>26719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54739</v>
+        <v>52543</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.00554604530948016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00389728334914467</v>
+        <v>0.00385063184972046</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.007888767466988515</v>
+        <v>0.007572283519822823</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>3369586</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3356392</v>
+        <v>3357689</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3378596</v>
+        <v>3378540</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9927044482695255</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9888174159176163</v>
+        <v>0.9891993311096888</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9953587741519958</v>
+        <v>0.9953423458717033</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3326</v>
@@ -3027,19 +3027,19 @@
         <v>3530822</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3519193</v>
+        <v>3520602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3537132</v>
+        <v>3537213</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9961293298792215</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9928485809790549</v>
+        <v>0.9932458546808984</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9979094169695606</v>
+        <v>0.9979324327461914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6535</v>
@@ -3048,19 +3048,19 @@
         <v>6900409</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6884153</v>
+        <v>6886349</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6911849</v>
+        <v>6912173</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9944539546905199</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9921112325330117</v>
+        <v>0.9924277164801776</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.996102716650856</v>
+        <v>0.9961493681502795</v>
       </c>
     </row>
     <row r="18">
